--- a/docs/scaling head pitch.xlsx
+++ b/docs/scaling head pitch.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21555" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="21555" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Head - Pitch based on Yaw" sheetId="2" r:id="rId1"/>
@@ -136,37 +136,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -176,15 +146,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Pitch min</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Pitch Min</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -220,7 +182,7 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="4"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -424,7 +386,7 @@
             </c:spPr>
             <c:trendlineType val="poly"/>
             <c:order val="4"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
@@ -570,7 +532,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Actual Min</c:v>
+            <c:v>Modelled Min</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2065,7 +2027,7 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Actual Max</c:v>
+            <c:v>Modelled Max</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3588,6 +3550,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Pitch</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3650,6 +3667,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Current Yaw</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.2288512337429863E-2"/>
+              <c:y val="0.40137901340635185"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3701,6 +3781,18 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4333,7 +4425,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305192" cy="6081346"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
